--- a/biology/Zoologie/Canard_de_Chiloé/Canard_de_Chiloé.xlsx
+++ b/biology/Zoologie/Canard_de_Chiloé/Canard_de_Chiloé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Canard_de_Chilo%C3%A9</t>
+          <t>Canard_de_Chiloé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mareca sibilatrix
 Le Canard de Chiloé (Mareca sibilatrix, anciennement Anas sibilatrix) est une espèce de palmipèdes de la famille des Anatidae. Il est appelé communément pato overo en Argentine.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Canard_de_Chilo%C3%A9</t>
+          <t>Canard_de_Chiloé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce se trouve en Amérique du Sud. Il se reproduit au Chili, en Uruguay, en Argentine jusqu’en Terre de Feu et aux îles Falkland. Il hiverne dans ces pays mais aussi au Paraguay et au Brésil (Rio Grande do Sul).
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Canard_de_Chilo%C3%A9</t>
+          <t>Canard_de_Chiloé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est proche du Canard siffleur (Anas penelope) et du Canard à front blanc (Anas americana).
 </t>
